--- a/docs/Decodifiche/102_dec_stato_flusso_notifiche.xlsx
+++ b/docs/Decodifiche/102_dec_stato_flusso_notifiche.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>APPROVATO</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>RIFIUTATA</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -167,6 +173,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/102_dec_stato_flusso_notifiche.xlsx
+++ b/docs/Decodifiche/102_dec_stato_flusso_notifiche.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>RIFIUTATA</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>STATOINFORMATIVO</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -109,14 +118,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.1484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.04296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
@@ -190,6 +199,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/102_dec_stato_flusso_notifiche.xlsx
+++ b/docs/Decodifiche/102_dec_stato_flusso_notifiche.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>2024-05-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>INEFFICACE</t>
+  </si>
+  <si>
+    <t>2025-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -118,13 +130,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.04296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
@@ -216,6 +228,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
